--- a/datasets/Compendium.xlsx
+++ b/datasets/Compendium.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a829510\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a829510\Downloads\Persona_Compendium\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0826F490-633B-48EA-9E75-B53C217FF658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C343B3-FA83-4EA5-A0D8-BCE963A5C75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3098AF4A-9336-4CC9-97A8-9805EE977A59}"/>
+    <workbookView xWindow="3640" yWindow="500" windowWidth="14400" windowHeight="8510" xr2:uid="{3098AF4A-9336-4CC9-97A8-9805EE977A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="530">
   <si>
     <t>Fool</t>
   </si>
@@ -900,6 +900,732 @@
   </si>
   <si>
     <t>Psy</t>
+  </si>
+  <si>
+    <t>images/Arsene.png</t>
+  </si>
+  <si>
+    <t>images/Zorro.png</t>
+  </si>
+  <si>
+    <t>images/Jack-o'-Lantern.png</t>
+  </si>
+  <si>
+    <t>images/Pixie.png</t>
+  </si>
+  <si>
+    <t>images/Agathion.png</t>
+  </si>
+  <si>
+    <t>images/Mandrake.png</t>
+  </si>
+  <si>
+    <t>images/Captain Kidd.png</t>
+  </si>
+  <si>
+    <t>images/Bicorn.png</t>
+  </si>
+  <si>
+    <t>images/Cait Sith.png</t>
+  </si>
+  <si>
+    <t>images/Carmen.png</t>
+  </si>
+  <si>
+    <t>images/Incubus.png</t>
+  </si>
+  <si>
+    <t>images/Silky.png</t>
+  </si>
+  <si>
+    <t>images/Saki Mitama.png</t>
+  </si>
+  <si>
+    <t>images/Kelpie.png</t>
+  </si>
+  <si>
+    <t>images/Genbu.png</t>
+  </si>
+  <si>
+    <t>images/Succubus.png</t>
+  </si>
+  <si>
+    <t>images/Obariyon.png</t>
+  </si>
+  <si>
+    <t>images/Berith.png</t>
+  </si>
+  <si>
+    <t>images/Angel.png</t>
+  </si>
+  <si>
+    <t>images/Koropokkuru.png</t>
+  </si>
+  <si>
+    <t>images/Hua Po.png</t>
+  </si>
+  <si>
+    <t>images/Mokoi.png</t>
+  </si>
+  <si>
+    <t>images/Regent.png</t>
+  </si>
+  <si>
+    <t>images/Slime.png</t>
+  </si>
+  <si>
+    <t>images/Orpheus F.png</t>
+  </si>
+  <si>
+    <t>images/Jack Frost.png</t>
+  </si>
+  <si>
+    <t>images/Apsaras.png</t>
+  </si>
+  <si>
+    <t>images/Koppa Tengu.png</t>
+  </si>
+  <si>
+    <t>images/Kodama.png</t>
+  </si>
+  <si>
+    <t>images/Onmoraki.png</t>
+  </si>
+  <si>
+    <t>images/Kusi Mitama.png</t>
+  </si>
+  <si>
+    <t>images/Orpheus F Picaro.png</t>
+  </si>
+  <si>
+    <t>images/Ame-no-Uzume.png</t>
+  </si>
+  <si>
+    <t>images/Ippon-Datara.png</t>
+  </si>
+  <si>
+    <t>images/Archangel.png</t>
+  </si>
+  <si>
+    <t>images/Inugami.png</t>
+  </si>
+  <si>
+    <t>images/Queen's Necklace.png</t>
+  </si>
+  <si>
+    <t>images/Goemon.png</t>
+  </si>
+  <si>
+    <t>images/Shiisaa.png</t>
+  </si>
+  <si>
+    <t>images/Makami.png</t>
+  </si>
+  <si>
+    <t>images/High Pixie.png</t>
+  </si>
+  <si>
+    <t>images/Eligor.png</t>
+  </si>
+  <si>
+    <t>images/Kaguya.png</t>
+  </si>
+  <si>
+    <t>images/Suzaku.png</t>
+  </si>
+  <si>
+    <t>images/Nekomata.png</t>
+  </si>
+  <si>
+    <t>images/Orobas.png</t>
+  </si>
+  <si>
+    <t>images/Sudama.png</t>
+  </si>
+  <si>
+    <t>images/Matador.png</t>
+  </si>
+  <si>
+    <t>images/Shiki-Ouji.png</t>
+  </si>
+  <si>
+    <t>images/Black Ooze.png</t>
+  </si>
+  <si>
+    <t>images/Leanan Sidhe.png</t>
+  </si>
+  <si>
+    <t>images/Flauros.png</t>
+  </si>
+  <si>
+    <t>images/Izanagi.png</t>
+  </si>
+  <si>
+    <t>images/Yaksini.png</t>
+  </si>
+  <si>
+    <t>images/Stone of Scone.png</t>
+  </si>
+  <si>
+    <t>images/Oni.png</t>
+  </si>
+  <si>
+    <t>images/Nue.png</t>
+  </si>
+  <si>
+    <t>images/Johanna.png</t>
+  </si>
+  <si>
+    <t>images/Orthrus.png</t>
+  </si>
+  <si>
+    <t>images/Phoenix.png</t>
+  </si>
+  <si>
+    <t>images/Jikokuten.png</t>
+  </si>
+  <si>
+    <t>images/Nigi Mitama.png</t>
+  </si>
+  <si>
+    <t>images/Izanagi Picaro.png</t>
+  </si>
+  <si>
+    <t>images/Sandman.png</t>
+  </si>
+  <si>
+    <t>images/Fuu-Ki.png</t>
+  </si>
+  <si>
+    <t>images/Naga.png</t>
+  </si>
+  <si>
+    <t>images/Rakshasa.png</t>
+  </si>
+  <si>
+    <t>images/Sui-Ki.png</t>
+  </si>
+  <si>
+    <t>images/Koh-i-Noor.png</t>
+  </si>
+  <si>
+    <t>images/Setanta.png</t>
+  </si>
+  <si>
+    <t>images/Anzu.png</t>
+  </si>
+  <si>
+    <t>images/Kin-Ki.png</t>
+  </si>
+  <si>
+    <t>images/Kaguya Picaro.png</t>
+  </si>
+  <si>
+    <t>images/Orpheus.png</t>
+  </si>
+  <si>
+    <t>images/Isis.png</t>
+  </si>
+  <si>
+    <t>images/Lamia.png</t>
+  </si>
+  <si>
+    <t>images/Take-Minakata.png</t>
+  </si>
+  <si>
+    <t>images/Clotho.png</t>
+  </si>
+  <si>
+    <t>images/Andras.png</t>
+  </si>
+  <si>
+    <t>images/Tam Lin.png</t>
+  </si>
+  <si>
+    <t>images/Choronzon.png</t>
+  </si>
+  <si>
+    <t>images/Pisaca.png</t>
+  </si>
+  <si>
+    <t>images/Orpheus Picaro.png</t>
+  </si>
+  <si>
+    <t>images/Principality.png</t>
+  </si>
+  <si>
+    <t>images/Ara Mitama.png</t>
+  </si>
+  <si>
+    <t>images/Ariadne.png</t>
+  </si>
+  <si>
+    <t>images/Orlov.png</t>
+  </si>
+  <si>
+    <t>images/Neko Shogun.png</t>
+  </si>
+  <si>
+    <t>images/Kurama Tengu.png</t>
+  </si>
+  <si>
+    <t>images/Necronomicon.png</t>
+  </si>
+  <si>
+    <t>images/Zouchouten.png</t>
+  </si>
+  <si>
+    <t>images/Lilim.png</t>
+  </si>
+  <si>
+    <t>images/Decarabia.png</t>
+  </si>
+  <si>
+    <t>images/Mithra.png</t>
+  </si>
+  <si>
+    <t>images/Mothman.png</t>
+  </si>
+  <si>
+    <t>images/Thunderbird.png</t>
+  </si>
+  <si>
+    <t>images/Anubis.png</t>
+  </si>
+  <si>
+    <t>images/Arahabaki.png</t>
+  </si>
+  <si>
+    <t>images/Lachesis.png</t>
+  </si>
+  <si>
+    <t>images/Emperor's Amulet.png</t>
+  </si>
+  <si>
+    <t>images/Milady.png</t>
+  </si>
+  <si>
+    <t>images/Thoth.png</t>
+  </si>
+  <si>
+    <t>images/Kaiwan.png</t>
+  </si>
+  <si>
+    <t>images/Hell Biker.png</t>
+  </si>
+  <si>
+    <t>images/Belphegor.png</t>
+  </si>
+  <si>
+    <t>images/Legion.png</t>
+  </si>
+  <si>
+    <t>images/White Rider.png</t>
+  </si>
+  <si>
+    <t>images/Atropos.png</t>
+  </si>
+  <si>
+    <t>images/Mithras.png</t>
+  </si>
+  <si>
+    <t>images/Unicorn.png</t>
+  </si>
+  <si>
+    <t>images/Kikuri-Hime.png</t>
+  </si>
+  <si>
+    <t>images/Hariti.png</t>
+  </si>
+  <si>
+    <t>images/Daisoujou.png</t>
+  </si>
+  <si>
+    <t>images/Hope Diamond.png</t>
+  </si>
+  <si>
+    <t>images/Power.png</t>
+  </si>
+  <si>
+    <t>images/Red Rider.png</t>
+  </si>
+  <si>
+    <t>images/Ose.png</t>
+  </si>
+  <si>
+    <t>images/Kushinada.png</t>
+  </si>
+  <si>
+    <t>images/Kumbhanda.png</t>
+  </si>
+  <si>
+    <t>images/Ariadne Picaro.png</t>
+  </si>
+  <si>
+    <t>images/Hecatoncheires.png</t>
+  </si>
+  <si>
+    <t>images/Queen Mab.png</t>
+  </si>
+  <si>
+    <t>images/Girimehkala.png</t>
+  </si>
+  <si>
+    <t>images/Yurlungur.png</t>
+  </si>
+  <si>
+    <t>images/Valkyrie.png</t>
+  </si>
+  <si>
+    <t>images/Magatsu-Izanagi.png</t>
+  </si>
+  <si>
+    <t>images/Ananta.png</t>
+  </si>
+  <si>
+    <t>images/Robin Hood.png</t>
+  </si>
+  <si>
+    <t>images/Byakko.png</t>
+  </si>
+  <si>
+    <t>images/Pazuzu.png</t>
+  </si>
+  <si>
+    <t>images/Athena.png</t>
+  </si>
+  <si>
+    <t>images/Fortuna.png</t>
+  </si>
+  <si>
+    <t>images/Horus.png</t>
+  </si>
+  <si>
+    <t>images/Rangda.png</t>
+  </si>
+  <si>
+    <t>images/Narcissus.png</t>
+  </si>
+  <si>
+    <t>images/Magatsu-Izanagi Picaro.png</t>
+  </si>
+  <si>
+    <t>images/Bugs.png</t>
+  </si>
+  <si>
+    <t>images/Koumokuten.png</t>
+  </si>
+  <si>
+    <t>images/Crystal Skull.png</t>
+  </si>
+  <si>
+    <t>images/Sarasvati.png</t>
+  </si>
+  <si>
+    <t>images/Dakini.png</t>
+  </si>
+  <si>
+    <t>images/Athena Picaro.png</t>
+  </si>
+  <si>
+    <t>images/Tsukiyomi.png</t>
+  </si>
+  <si>
+    <t>images/Jatayu.png</t>
+  </si>
+  <si>
+    <t>images/Seth.png</t>
+  </si>
+  <si>
+    <t>images/Barong.png</t>
+  </si>
+  <si>
+    <t>images/Mishaguji.png</t>
+  </si>
+  <si>
+    <t>images/Norn.png</t>
+  </si>
+  <si>
+    <t>images/Garuda.png</t>
+  </si>
+  <si>
+    <t>images/Skadi.png</t>
+  </si>
+  <si>
+    <t>images/Ganesha.png</t>
+  </si>
+  <si>
+    <t>images/Pale Rider.png</t>
+  </si>
+  <si>
+    <t>images/Okuninushi.png</t>
+  </si>
+  <si>
+    <t>images/Cerberus.png</t>
+  </si>
+  <si>
+    <t>images/Raja Naga.png</t>
+  </si>
+  <si>
+    <t>images/Tsukiyomi Picaro.png</t>
+  </si>
+  <si>
+    <t>images/Titania.png</t>
+  </si>
+  <si>
+    <t>images/Parvati.png</t>
+  </si>
+  <si>
+    <t>images/Asterius.png</t>
+  </si>
+  <si>
+    <t>images/Yatagarasu.png</t>
+  </si>
+  <si>
+    <t>images/Melchizedek.png</t>
+  </si>
+  <si>
+    <t>images/Baphomet.png</t>
+  </si>
+  <si>
+    <t>images/Black Rider.png</t>
+  </si>
+  <si>
+    <t>images/Trumpeter.png</t>
+  </si>
+  <si>
+    <t>images/Moloch.png</t>
+  </si>
+  <si>
+    <t>images/Lilith.png</t>
+  </si>
+  <si>
+    <t>images/Orichalcum.png</t>
+  </si>
+  <si>
+    <t>images/King Frost.png</t>
+  </si>
+  <si>
+    <t>images/Asterius Picaro.png</t>
+  </si>
+  <si>
+    <t>images/Chernobog.png</t>
+  </si>
+  <si>
+    <t>images/Seiryu.png</t>
+  </si>
+  <si>
+    <t>images/Forneus.png</t>
+  </si>
+  <si>
+    <t>images/Kali.png</t>
+  </si>
+  <si>
+    <t>images/Thor.png</t>
+  </si>
+  <si>
+    <t>images/Hanuman.png</t>
+  </si>
+  <si>
+    <t>images/Yamata-no-Orochi.png</t>
+  </si>
+  <si>
+    <t>images/Thanatos.png</t>
+  </si>
+  <si>
+    <t>images/Atavaka.png</t>
+  </si>
+  <si>
+    <t>images/Oberon.png</t>
+  </si>
+  <si>
+    <t>images/Quetzalcoatl.png</t>
+  </si>
+  <si>
+    <t>images/Black Frost.png</t>
+  </si>
+  <si>
+    <t>images/Bishamonten.png</t>
+  </si>
+  <si>
+    <t>images/Dominion.png</t>
+  </si>
+  <si>
+    <t>images/Vasuki.png</t>
+  </si>
+  <si>
+    <t>images/Lakshmi.png</t>
+  </si>
+  <si>
+    <t>images/Thanatos Picaro.png</t>
+  </si>
+  <si>
+    <t>images/Loa.png</t>
+  </si>
+  <si>
+    <t>images/Byakhee.png</t>
+  </si>
+  <si>
+    <t>images/Dionysus.png</t>
+  </si>
+  <si>
+    <t>images/Throne.png</t>
+  </si>
+  <si>
+    <t>images/Mot.png</t>
+  </si>
+  <si>
+    <t>images/Macabre.png</t>
+  </si>
+  <si>
+    <t>images/Mara.png</t>
+  </si>
+  <si>
+    <t>images/Chimera.png</t>
+  </si>
+  <si>
+    <t>images/Nebiros.png</t>
+  </si>
+  <si>
+    <t>images/Loki.png</t>
+  </si>
+  <si>
+    <t>images/Sandalphon.png</t>
+  </si>
+  <si>
+    <t>images/Abaddon.png</t>
+  </si>
+  <si>
+    <t>images/Cendrillon.png</t>
+  </si>
+  <si>
+    <t>images/Raoul.png</t>
+  </si>
+  <si>
+    <t>images/Kohryu.png</t>
+  </si>
+  <si>
+    <t>images/Asura.png</t>
+  </si>
+  <si>
+    <t>images/Cu Chulainn.png</t>
+  </si>
+  <si>
+    <t>images/Scathach.png</t>
+  </si>
+  <si>
+    <t>images/Gabriel.png</t>
+  </si>
+  <si>
+    <t>images/Raphael.png</t>
+  </si>
+  <si>
+    <t>images/Zaou-Gongen.png</t>
+  </si>
+  <si>
+    <t>images/Sraosha.png</t>
+  </si>
+  <si>
+    <t>images/Vohu Manah.png</t>
+  </si>
+  <si>
+    <t>images/Izanagi-no-Okami.png</t>
+  </si>
+  <si>
+    <t>images/Alilat.png</t>
+  </si>
+  <si>
+    <t>images/Uriel.png</t>
+  </si>
+  <si>
+    <t>images/Messiah.png</t>
+  </si>
+  <si>
+    <t>images/Baal.png</t>
+  </si>
+  <si>
+    <t>images/Attis.png</t>
+  </si>
+  <si>
+    <t>images/Belial.png</t>
+  </si>
+  <si>
+    <t>images/Shiva.png</t>
+  </si>
+  <si>
+    <t>images/Vishnu.png</t>
+  </si>
+  <si>
+    <t>images/Surt.png</t>
+  </si>
+  <si>
+    <t>images/Cybele.png</t>
+  </si>
+  <si>
+    <t>images/Alice.png</t>
+  </si>
+  <si>
+    <t>images/Odin.png</t>
+  </si>
+  <si>
+    <t>images/Ardha.png</t>
+  </si>
+  <si>
+    <t>images/Hastur.png</t>
+  </si>
+  <si>
+    <t>images/Siegfried.png</t>
+  </si>
+  <si>
+    <t>images/Mother Harlot.png</t>
+  </si>
+  <si>
+    <t>images/Ishtar.png</t>
+  </si>
+  <si>
+    <t>images/Futsunushi.png</t>
+  </si>
+  <si>
+    <t>images/Fafnir.png</t>
+  </si>
+  <si>
+    <t>images/Beelzebub.png</t>
+  </si>
+  <si>
+    <t>images/Yoshitsune.png</t>
+  </si>
+  <si>
+    <t>images/Michael.png</t>
+  </si>
+  <si>
+    <t>images/Chi You.png</t>
+  </si>
+  <si>
+    <t>images/Metatron.png</t>
+  </si>
+  <si>
+    <t>images/Ongyo-Ki.png</t>
+  </si>
+  <si>
+    <t>images/Izanagi-no-Okami Picaro.png</t>
+  </si>
+  <si>
+    <t>images/Mada.png</t>
+  </si>
+  <si>
+    <t>images/Messiah Picaro.png</t>
+  </si>
+  <si>
+    <t>images/Satan.png</t>
+  </si>
+  <si>
+    <t>images/Lucifer.png</t>
+  </si>
+  <si>
+    <t>images/Maria.png</t>
+  </si>
+  <si>
+    <t>images/Satanael.png</t>
   </si>
 </sst>
 </file>
@@ -929,7 +1655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -938,30 +1664,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF282828"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF622323"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF222222"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF386426"/>
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -984,37 +1692,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF333333"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF333333"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1330,3405 +2035,4134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6734804-BD6B-4836-B368-A213BFEA42C0}">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:E242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="13.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="E3" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="E5" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+      <c r="E7" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="E11" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>6</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="E12" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
+      <c r="E13" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>6</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="E14" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
+      <c r="E15" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>7</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+      <c r="E16" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>8</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
+      <c r="E17" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2">
         <v>9</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="E18" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
+      <c r="E19" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="2">
         <v>9</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="E20" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>9</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
+      <c r="E21" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="2">
         <v>9</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
+      <c r="E22" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>10</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
+      <c r="E23" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>10</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+      <c r="E24" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>11</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
+      <c r="E25" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="2">
         <v>11</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="E26" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>11</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
+      <c r="E27" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="2">
         <v>11</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+      <c r="E28" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>11</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
+      <c r="E29" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="2">
         <v>12</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+      <c r="E30" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>12</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="6" t="s">
+      <c r="E31" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="2">
         <v>13</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+      <c r="E32" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>13</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="6" t="s">
+      <c r="E33" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="2">
         <v>13</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+      <c r="E34" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>14</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="6" t="s">
+      <c r="E35" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="2">
         <v>14</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
+      <c r="E36" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>15</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
+      <c r="E37" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>15</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+      <c r="E38" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>15</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="6" t="s">
+      <c r="E39" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="2">
         <v>15</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
+      <c r="E40" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>16</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="6" t="s">
+      <c r="E41" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="2">
         <v>16</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
+      <c r="E42" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>16</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="6" t="s">
+      <c r="E43" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="2">
         <v>16</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
+      <c r="E44" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>17</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="6" t="s">
+      <c r="E45" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="2">
         <v>17</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
+      <c r="E46" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>17</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="6" t="s">
+      <c r="E47" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="2">
         <v>17</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
+      <c r="E48" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>18</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="6" t="s">
+      <c r="E49" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="2">
         <v>18</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
+      <c r="E50" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>19</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="8" t="s">
+      <c r="E51" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="2">
         <v>19</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
+      <c r="E52" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>20</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="6" t="s">
+      <c r="E53" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="2">
         <v>20</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="4" t="s">
+      <c r="E54" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>20</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="6" t="s">
+      <c r="E55" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="2">
         <v>20</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
+      <c r="E56" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>20</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4" t="s">
+      <c r="E57" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>21</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
+      <c r="E58" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>21</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="6" t="s">
+      <c r="E59" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="2">
         <v>21</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
+      <c r="E60" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <v>22</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="6" t="s">
+      <c r="E61" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="2">
         <v>22</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
+      <c r="E62" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <v>23</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="6" t="s">
+      <c r="E63" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="2">
         <v>23</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="2" t="s">
+      <c r="E64" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>23</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="6" t="s">
+      <c r="E65" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="2">
         <v>24</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="2" t="s">
+      <c r="E66" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <v>24</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="6" t="s">
+      <c r="E67" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="2">
         <v>24</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="4" t="s">
+      <c r="E68" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>25</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="6" t="s">
+      <c r="E69" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="2">
         <v>25</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="2" t="s">
+      <c r="E70" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <v>25</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="6" t="s">
+      <c r="E71" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="2">
         <v>25</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="2" t="s">
+      <c r="E72" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <v>25</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="6" t="s">
+      <c r="E73" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="2">
         <v>26</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="2" t="s">
+      <c r="E74" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <v>26</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="6" t="s">
+      <c r="E75" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="2">
         <v>26</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="2" t="s">
+      <c r="E76" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <v>26</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="6" t="s">
+      <c r="E77" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="2">
         <v>27</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="2" t="s">
+      <c r="E78" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="2">
         <v>27</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="8" t="s">
+      <c r="E79" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="2">
         <v>27</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="2" t="s">
+      <c r="E80" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="2">
         <v>28</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="6" t="s">
+      <c r="E81" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="2">
         <v>28</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="2" t="s">
+      <c r="E82" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <v>29</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="6" t="s">
+      <c r="E83" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="2">
         <v>29</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="2" t="s">
+      <c r="E84" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
         <v>30</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="6" t="s">
+      <c r="E85" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="2">
         <v>30</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="4" t="s">
+      <c r="E86" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="2">
         <v>30</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="8" t="s">
+      <c r="E87" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="2">
         <v>30</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="2" t="s">
+      <c r="E88" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>31</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="4" t="s">
+      <c r="E89" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
         <v>31</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="2" t="s">
+      <c r="E90" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
         <v>31</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="6" t="s">
+      <c r="E91" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="2">
         <v>32</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="2" t="s">
+      <c r="E92" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="2">
         <v>32</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="6" t="s">
+      <c r="E93" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="2">
         <v>33</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="2" t="s">
+      <c r="E94" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="2">
         <v>33</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="6" t="s">
+      <c r="E95" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="2">
         <v>34</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="2" t="s">
+      <c r="E96" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="2">
         <v>34</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="6" t="s">
+      <c r="E97" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="2">
         <v>35</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="2" t="s">
+      <c r="E98" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="2">
         <v>35</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="4" t="s">
+      <c r="E99" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="2">
         <v>35</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="4" t="s">
+      <c r="E100" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="2">
         <v>36</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="6" t="s">
+      <c r="E101" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="2">
         <v>36</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="2" t="s">
+      <c r="E102" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="2">
         <v>36</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="8" t="s">
+      <c r="E103" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="2">
         <v>37</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="2" t="s">
+      <c r="E104" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="2">
         <v>37</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="6" t="s">
+      <c r="E105" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="2">
         <v>38</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="2" t="s">
+      <c r="E106" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="2">
         <v>38</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="6" t="s">
+      <c r="E107" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="2">
         <v>39</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="2" t="s">
+      <c r="E108" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="2">
         <v>39</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="6" t="s">
+      <c r="E109" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="2">
         <v>39</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="2" t="s">
+      <c r="E110" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="2">
         <v>40</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="6" t="s">
+      <c r="E111" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="2">
         <v>40</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="2" t="s">
+      <c r="E112" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="2">
         <v>40</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="4" t="s">
+      <c r="E113" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="2">
         <v>40</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="2" t="s">
+      <c r="E114" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="2">
         <v>41</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="6" t="s">
+      <c r="E115" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="2">
         <v>41</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="2" t="s">
+      <c r="E116" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="2">
         <v>42</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="6" t="s">
+      <c r="E117" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="2">
         <v>42</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="2" t="s">
+      <c r="E118" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="2">
         <v>42</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="6" t="s">
+      <c r="E119" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="2">
         <v>42</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="2" t="s">
+      <c r="E120" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="2">
         <v>42</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="6" t="s">
+      <c r="E121" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="2">
         <v>43</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="2" t="s">
+      <c r="E122" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="2">
         <v>43</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="6" t="s">
+      <c r="E123" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="2">
         <v>43</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="2" t="s">
+      <c r="E124" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="2">
         <v>44</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="6" t="s">
+      <c r="E125" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="2">
         <v>44</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="2" t="s">
+      <c r="E126" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="2">
         <v>44</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="4" t="s">
+      <c r="E127" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="2">
         <v>45</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="2" t="s">
+      <c r="E128" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="2">
         <v>45</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="6" t="s">
+      <c r="E129" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="2">
         <v>45</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="2" t="s">
+      <c r="E130" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="2">
         <v>46</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="6" t="s">
+      <c r="E131" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="2">
         <v>46</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="2" t="s">
+      <c r="E132" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="2">
         <v>47</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="6" t="s">
+      <c r="E133" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="2">
         <v>48</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="2" t="s">
+      <c r="E134" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="2">
         <v>48</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="6" t="s">
+      <c r="E135" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="2">
         <v>48</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="8" t="s">
+      <c r="E136" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="2">
         <v>49</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="6" t="s">
+      <c r="E137" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="2">
         <v>49</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="4" t="s">
+      <c r="E138" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="2">
         <v>50</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="6" t="s">
+      <c r="E139" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="2">
         <v>50</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="2" t="s">
+      <c r="E140" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="2">
         <v>50</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="6" t="s">
+      <c r="E141" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="2">
         <v>50</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="2" t="s">
+      <c r="E142" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="2">
         <v>50</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="6" t="s">
+      <c r="E143" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="2">
         <v>51</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="8" t="s">
+      <c r="E144" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="2">
         <v>51</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="6" t="s">
+      <c r="E145" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="2">
         <v>52</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="2" t="s">
+      <c r="E146" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="2">
         <v>52</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="6" t="s">
+      <c r="E147" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="2">
         <v>52</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="2" t="s">
+      <c r="E148" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="2">
         <v>52</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="6" t="s">
+      <c r="E149" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="2">
         <v>53</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="2" t="s">
+      <c r="E150" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="2">
         <v>53</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="6" t="s">
+      <c r="E151" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="2">
         <v>54</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="2" t="s">
+      <c r="E152" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="2">
         <v>54</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="6" t="s">
+      <c r="E153" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="2">
         <v>55</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="2" t="s">
+      <c r="E154" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="2">
         <v>55</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="6" t="s">
+      <c r="E155" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="2">
         <v>55</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="2" t="s">
+      <c r="E156" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="2">
         <v>56</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="6" t="s">
+      <c r="E157" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C158" s="5">
+      <c r="C158" s="2">
         <v>56</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="2" t="s">
+      <c r="E158" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="2">
         <v>56</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="6" t="s">
+      <c r="E159" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C160" s="2">
         <v>57</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="2" t="s">
+      <c r="E160" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="2">
         <v>58</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="6" t="s">
+      <c r="E161" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C162" s="2">
         <v>58</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="2" t="s">
+      <c r="E162" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="2">
         <v>59</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="8" t="s">
+      <c r="E163" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C164" s="2">
         <v>59</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="2" t="s">
+      <c r="E164" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="2">
         <v>60</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="6" t="s">
+      <c r="E165" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C166" s="5">
+      <c r="C166" s="2">
         <v>60</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="4" t="s">
+      <c r="E166" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="2">
         <v>60</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="6" t="s">
+      <c r="E167" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168" s="2">
         <v>61</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="2" t="s">
+      <c r="E168" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="2">
         <v>62</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="6" t="s">
+      <c r="E169" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170" s="2">
         <v>62</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="2" t="s">
+      <c r="E170" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="2">
         <v>62</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="6" t="s">
+      <c r="E171" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C172" s="2">
         <v>63</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="2" t="s">
+      <c r="E172" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="2">
         <v>63</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="6" t="s">
+      <c r="E173" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174" s="2">
         <v>64</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="2" t="s">
+      <c r="E174" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="2">
         <v>64</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="6" t="s">
+      <c r="E175" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C176" s="5">
+      <c r="C176" s="2">
         <v>64</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="2" t="s">
+      <c r="E176" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177" s="2">
         <v>65</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="6" t="s">
+      <c r="E177" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178" s="2">
         <v>65</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="2" t="s">
+      <c r="E178" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179" s="2">
         <v>66</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="6" t="s">
+      <c r="E179" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C180" s="2">
         <v>66</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D180" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="8" t="s">
+      <c r="E180" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C181" s="7">
+      <c r="C181" s="2">
         <v>67</v>
       </c>
-      <c r="D181" s="7" t="s">
+      <c r="D181" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="6" t="s">
+      <c r="E181" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="5">
+      <c r="C182" s="2">
         <v>67</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="2" t="s">
+      <c r="E182" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183" s="2">
         <v>68</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="8" t="s">
+      <c r="E183" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C184" s="7">
+      <c r="C184" s="2">
         <v>68</v>
       </c>
-      <c r="D184" s="7" t="s">
+      <c r="D184" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="2" t="s">
+      <c r="E184" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="2">
         <v>69</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="6" t="s">
+      <c r="E185" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186" s="2">
         <v>69</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="2" t="s">
+      <c r="E186" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187" s="2">
         <v>70</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="6" t="s">
+      <c r="E187" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188" s="2">
         <v>70</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="2" t="s">
+      <c r="E188" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="2">
         <v>71</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="6" t="s">
+      <c r="E189" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="2">
         <v>72</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="2" t="s">
+      <c r="E190" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191" s="2">
         <v>72</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A192" s="6" t="s">
+      <c r="E191" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C192" s="5">
+      <c r="C192" s="2">
         <v>73</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="2" t="s">
+      <c r="E192" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="2">
         <v>73</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="6" t="s">
+      <c r="E193" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C194" s="2">
         <v>74</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="2" t="s">
+      <c r="E194" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="2">
         <v>74</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="4" t="s">
+      <c r="E195" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="2">
         <v>75</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D196" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="2" t="s">
+      <c r="E196" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197" s="2">
         <v>75</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="6" t="s">
+      <c r="E197" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C198" s="5">
+      <c r="C198" s="2">
         <v>75</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="4" t="s">
+      <c r="E198" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="2">
         <v>75</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="6" t="s">
+      <c r="E199" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C200" s="5">
+      <c r="C200" s="2">
         <v>76</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="8" t="s">
+      <c r="E200" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C201" s="2">
         <v>76</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D201" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="8" t="s">
+      <c r="E201" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="2">
         <v>76</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D202" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="2" t="s">
+      <c r="E202" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A203" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="2">
         <v>76</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="6" t="s">
+      <c r="E203" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C204" s="5">
+      <c r="C204" s="2">
         <v>77</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="2" t="s">
+      <c r="E204" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205" s="2">
         <v>77</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="6" t="s">
+      <c r="E205" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C206" s="5">
+      <c r="C206" s="2">
         <v>78</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D206" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="2" t="s">
+      <c r="E206" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C207" s="2">
         <v>80</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="8" t="s">
+      <c r="E207" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C208" s="7">
+      <c r="C208" s="2">
         <v>80</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="D208" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="2" t="s">
+      <c r="E208" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209" s="2">
         <v>80</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D209" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="6" t="s">
+      <c r="E209" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C210" s="5">
+      <c r="C210" s="2">
         <v>80</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="D210" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="2" t="s">
+      <c r="E210" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A211" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211" s="2">
         <v>81</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="6" t="s">
+      <c r="E211" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A212" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C212" s="5">
+      <c r="C212" s="2">
         <v>81</v>
       </c>
-      <c r="D212" s="5" t="s">
+      <c r="D212" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="2" t="s">
+      <c r="E212" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="2">
         <v>81</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D213" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="6" t="s">
+      <c r="E213" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C214" s="5">
+      <c r="C214" s="2">
         <v>82</v>
       </c>
-      <c r="D214" s="5" t="s">
+      <c r="D214" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="2" t="s">
+      <c r="E214" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A215" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="2">
         <v>82</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="6" t="s">
+      <c r="E215" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A216" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C216" s="5">
+      <c r="C216" s="2">
         <v>82</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="D216" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="8" t="s">
+      <c r="E216" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C217" s="7">
+      <c r="C217" s="2">
         <v>82</v>
       </c>
-      <c r="D217" s="7" t="s">
+      <c r="D217" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="6" t="s">
+      <c r="E217" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A218" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C218" s="5">
+      <c r="C218" s="2">
         <v>83</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="D218" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="2" t="s">
+      <c r="E218" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C219" s="2">
         <v>83</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="6" t="s">
+      <c r="E219" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A220" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C220" s="5">
+      <c r="C220" s="2">
         <v>83</v>
       </c>
-      <c r="D220" s="5" t="s">
+      <c r="D220" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="8" t="s">
+      <c r="E220" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C221" s="7">
+      <c r="C221" s="2">
         <v>83</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D221" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="6" t="s">
+      <c r="E221" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C222" s="5">
+      <c r="C222" s="2">
         <v>84</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="D222" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="8" t="s">
+      <c r="E222" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A223" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C223" s="7">
+      <c r="C223" s="2">
         <v>84</v>
       </c>
-      <c r="D223" s="7" t="s">
+      <c r="D223" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="6" t="s">
+      <c r="E223" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A224" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C224" s="5">
+      <c r="C224" s="2">
         <v>84</v>
       </c>
-      <c r="D224" s="5" t="s">
+      <c r="D224" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="2" t="s">
+      <c r="E224" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C225" s="2">
         <v>84</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="6" t="s">
+      <c r="E225" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A226" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C226" s="5">
+      <c r="C226" s="2">
         <v>85</v>
       </c>
-      <c r="D226" s="5" t="s">
+      <c r="D226" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="2" t="s">
+      <c r="E226" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C227" s="1">
+      <c r="C227" s="2">
         <v>85</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D227" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="6" t="s">
+      <c r="E227" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C228" s="5">
+      <c r="C228" s="2">
         <v>86</v>
       </c>
-      <c r="D228" s="5" t="s">
+      <c r="D228" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="2" t="s">
+      <c r="E228" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A229" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229" s="2">
         <v>86</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="6" t="s">
+      <c r="E229" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A230" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B230" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C230" s="5">
+      <c r="C230" s="2">
         <v>87</v>
       </c>
-      <c r="D230" s="5" t="s">
+      <c r="D230" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="8" t="s">
+      <c r="E230" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A231" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C231" s="7">
+      <c r="C231" s="2">
         <v>87</v>
       </c>
-      <c r="D231" s="7" t="s">
+      <c r="D231" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="8" t="s">
+      <c r="E231" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A232" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B232" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C232" s="7">
+      <c r="C232" s="2">
         <v>87</v>
       </c>
-      <c r="D232" s="7" t="s">
+      <c r="D232" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="8" t="s">
+      <c r="E232" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A233" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C233" s="7">
+      <c r="C233" s="2">
         <v>88</v>
       </c>
-      <c r="D233" s="7" t="s">
+      <c r="D233" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="8" t="s">
+      <c r="E233" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A234" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C234" s="7">
+      <c r="C234" s="2">
         <v>89</v>
       </c>
-      <c r="D234" s="7" t="s">
+      <c r="D234" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="8" t="s">
+      <c r="E234" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A235" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C235" s="7">
+      <c r="C235" s="2">
         <v>89</v>
       </c>
-      <c r="D235" s="7" t="s">
+      <c r="D235" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="6" t="s">
+      <c r="E235" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A236" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C236" s="5">
+      <c r="C236" s="2">
         <v>89</v>
       </c>
-      <c r="D236" s="5" t="s">
+      <c r="D236" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="2" t="s">
+      <c r="E236" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A237" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C237" s="2">
         <v>90</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D237" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="6" t="s">
+      <c r="E237" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A238" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="B238" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C238" s="5">
+      <c r="C238" s="2">
         <v>90</v>
       </c>
-      <c r="D238" s="5" t="s">
+      <c r="D238" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="2" t="s">
+      <c r="E238" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A239" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C239" s="1">
+      <c r="C239" s="2">
         <v>92</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D239" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="8" t="s">
+      <c r="E239" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A240" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B240" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C240" s="7">
+      <c r="C240" s="2">
         <v>93</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="D240" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="2" t="s">
+      <c r="E240" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A241" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C241" s="1">
+      <c r="C241" s="2">
         <v>93</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D241" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="8" t="s">
+      <c r="E241" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A242" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B242" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="7">
+      <c r="C242" s="2">
         <v>95</v>
       </c>
-      <c r="D242" s="7" t="s">
+      <c r="D242" s="2" t="s">
         <v>285</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Compendium.xlsx
+++ b/datasets/Compendium.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a829510\Downloads\Persona_Compendium\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a829510\Documents\PycharmProjects\Persona_Compendium\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C343B3-FA83-4EA5-A0D8-BCE963A5C75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91A780D-1A6B-4795-A36B-C726752C546E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="500" windowWidth="14400" windowHeight="8510" xr2:uid="{3098AF4A-9336-4CC9-97A8-9805EE977A59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3098AF4A-9336-4CC9-97A8-9805EE977A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1641,21 +1641,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1664,12 +1663,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1678,51 +1683,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF333333"/>
+      <left style="thin">
+        <color theme="0"/>
       </left>
-      <right style="medium">
-        <color rgb="FF333333"/>
+      <right style="thin">
+        <color theme="0"/>
       </right>
-      <top style="medium">
-        <color rgb="FF333333"/>
+      <top style="thin">
+        <color theme="0"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF333333"/>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF333333"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF333333"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2035,23 +2025,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6734804-BD6B-4836-B368-A213BFEA42C0}">
-  <dimension ref="A1:E242"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="13.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2064,11 +2054,11 @@
       <c r="D1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2081,11 +2071,11 @@
       <c r="D2" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2098,11 +2088,11 @@
       <c r="D3" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2115,11 +2105,11 @@
       <c r="D4" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2132,11 +2122,11 @@
       <c r="D5" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2149,11 +2139,11 @@
       <c r="D6" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2166,11 +2156,11 @@
       <c r="D7" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2183,11 +2173,11 @@
       <c r="D8" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2200,11 +2190,11 @@
       <c r="D9" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2217,11 +2207,11 @@
       <c r="D10" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2234,11 +2224,11 @@
       <c r="D11" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2251,11 +2241,11 @@
       <c r="D12" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2268,11 +2258,11 @@
       <c r="D13" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2285,11 +2275,11 @@
       <c r="D14" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -2302,11 +2292,11 @@
       <c r="D15" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -2319,11 +2309,11 @@
       <c r="D16" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -2336,11 +2326,11 @@
       <c r="D17" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2353,11 +2343,11 @@
       <c r="D18" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,11 +2360,11 @@
       <c r="D19" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -2387,11 +2377,11 @@
       <c r="D20" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -2404,11 +2394,11 @@
       <c r="D21" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -2421,11 +2411,11 @@
       <c r="D22" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2438,11 +2428,11 @@
       <c r="D23" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -2455,11 +2445,11 @@
       <c r="D24" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -2472,11 +2462,11 @@
       <c r="D25" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -2489,11 +2479,11 @@
       <c r="D26" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -2506,11 +2496,11 @@
       <c r="D27" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -2523,11 +2513,11 @@
       <c r="D28" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -2540,11 +2530,11 @@
       <c r="D29" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -2557,11 +2547,11 @@
       <c r="D30" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
@@ -2574,11 +2564,11 @@
       <c r="D31" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
@@ -2591,11 +2581,11 @@
       <c r="D32" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -2608,11 +2598,11 @@
       <c r="D33" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
@@ -2625,11 +2615,11 @@
       <c r="D34" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
@@ -2642,11 +2632,11 @@
       <c r="D35" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
@@ -2659,11 +2649,11 @@
       <c r="D36" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -2676,11 +2666,11 @@
       <c r="D37" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
@@ -2693,11 +2683,11 @@
       <c r="D38" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -2710,11 +2700,11 @@
       <c r="D39" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
@@ -2727,11 +2717,11 @@
       <c r="D40" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2744,11 +2734,11 @@
       <c r="D41" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>63</v>
       </c>
@@ -2761,11 +2751,11 @@
       <c r="D42" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>64</v>
       </c>
@@ -2778,11 +2768,11 @@
       <c r="D43" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
@@ -2795,11 +2785,11 @@
       <c r="D44" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
@@ -2812,11 +2802,11 @@
       <c r="D45" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>68</v>
       </c>
@@ -2829,11 +2819,11 @@
       <c r="D46" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
@@ -2846,11 +2836,11 @@
       <c r="D47" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
@@ -2863,11 +2853,11 @@
       <c r="D48" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -2880,11 +2870,11 @@
       <c r="D49" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>72</v>
       </c>
@@ -2897,11 +2887,11 @@
       <c r="D50" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>73</v>
       </c>
@@ -2914,11 +2904,11 @@
       <c r="D51" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
@@ -2931,11 +2921,11 @@
       <c r="D52" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>75</v>
       </c>
@@ -2948,11 +2938,11 @@
       <c r="D53" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>76</v>
       </c>
@@ -2965,11 +2955,11 @@
       <c r="D54" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
@@ -2982,11 +2972,11 @@
       <c r="D55" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
@@ -2999,11 +2989,11 @@
       <c r="D56" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
@@ -3016,11 +3006,11 @@
       <c r="D57" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
@@ -3033,11 +3023,11 @@
       <c r="D58" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>83</v>
       </c>
@@ -3050,11 +3040,11 @@
       <c r="D59" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>85</v>
       </c>
@@ -3067,11 +3057,11 @@
       <c r="D60" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>86</v>
       </c>
@@ -3084,11 +3074,11 @@
       <c r="D61" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>87</v>
       </c>
@@ -3101,11 +3091,11 @@
       <c r="D62" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>88</v>
       </c>
@@ -3118,11 +3108,11 @@
       <c r="D63" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
@@ -3135,11 +3125,11 @@
       <c r="D64" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,11 +3142,11 @@
       <c r="D65" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -3169,11 +3159,11 @@
       <c r="D66" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>92</v>
       </c>
@@ -3186,11 +3176,11 @@
       <c r="D67" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>93</v>
       </c>
@@ -3203,11 +3193,11 @@
       <c r="D68" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>94</v>
       </c>
@@ -3220,11 +3210,11 @@
       <c r="D69" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>95</v>
       </c>
@@ -3237,11 +3227,11 @@
       <c r="D70" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
@@ -3254,11 +3244,11 @@
       <c r="D71" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
@@ -3271,11 +3261,11 @@
       <c r="D72" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
@@ -3288,11 +3278,11 @@
       <c r="D73" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>99</v>
       </c>
@@ -3305,11 +3295,11 @@
       <c r="D74" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>100</v>
       </c>
@@ -3322,11 +3312,11 @@
       <c r="D75" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>101</v>
       </c>
@@ -3339,11 +3329,11 @@
       <c r="D76" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>102</v>
       </c>
@@ -3356,11 +3346,11 @@
       <c r="D77" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>103</v>
       </c>
@@ -3373,11 +3363,11 @@
       <c r="D78" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>104</v>
       </c>
@@ -3390,11 +3380,11 @@
       <c r="D79" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>105</v>
       </c>
@@ -3407,11 +3397,11 @@
       <c r="D80" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>106</v>
       </c>
@@ -3424,11 +3414,11 @@
       <c r="D81" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
@@ -3441,11 +3431,11 @@
       <c r="D82" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>108</v>
       </c>
@@ -3458,11 +3448,11 @@
       <c r="D83" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>109</v>
       </c>
@@ -3475,11 +3465,11 @@
       <c r="D84" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>110</v>
       </c>
@@ -3492,11 +3482,11 @@
       <c r="D85" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>111</v>
       </c>
@@ -3509,11 +3499,11 @@
       <c r="D86" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>112</v>
       </c>
@@ -3526,11 +3516,11 @@
       <c r="D87" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>113</v>
       </c>
@@ -3543,11 +3533,11 @@
       <c r="D88" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>114</v>
       </c>
@@ -3560,11 +3550,11 @@
       <c r="D89" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>116</v>
       </c>
@@ -3577,11 +3567,11 @@
       <c r="D90" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>117</v>
       </c>
@@ -3594,11 +3584,11 @@
       <c r="D91" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>118</v>
       </c>
@@ -3611,11 +3601,11 @@
       <c r="D92" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
@@ -3628,11 +3618,11 @@
       <c r="D93" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>120</v>
       </c>
@@ -3645,11 +3635,11 @@
       <c r="D94" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>121</v>
       </c>
@@ -3662,11 +3652,11 @@
       <c r="D95" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>122</v>
       </c>
@@ -3679,11 +3669,11 @@
       <c r="D96" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>124</v>
       </c>
@@ -3696,11 +3686,11 @@
       <c r="D97" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>125</v>
       </c>
@@ -3713,11 +3703,11 @@
       <c r="D98" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>126</v>
       </c>
@@ -3730,11 +3720,11 @@
       <c r="D99" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>127</v>
       </c>
@@ -3747,11 +3737,11 @@
       <c r="D100" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>129</v>
       </c>
@@ -3764,11 +3754,11 @@
       <c r="D101" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>130</v>
       </c>
@@ -3781,11 +3771,11 @@
       <c r="D102" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>131</v>
       </c>
@@ -3798,11 +3788,11 @@
       <c r="D103" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>132</v>
       </c>
@@ -3815,11 +3805,11 @@
       <c r="D104" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>134</v>
       </c>
@@ -3832,11 +3822,11 @@
       <c r="D105" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>135</v>
       </c>
@@ -3849,11 +3839,11 @@
       <c r="D106" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>136</v>
       </c>
@@ -3866,11 +3856,11 @@
       <c r="D107" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>137</v>
       </c>
@@ -3883,11 +3873,11 @@
       <c r="D108" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>138</v>
       </c>
@@ -3900,11 +3890,11 @@
       <c r="D109" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>139</v>
       </c>
@@ -3917,11 +3907,11 @@
       <c r="D110" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>140</v>
       </c>
@@ -3934,11 +3924,11 @@
       <c r="D111" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>141</v>
       </c>
@@ -3951,11 +3941,11 @@
       <c r="D112" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>142</v>
       </c>
@@ -3968,11 +3958,11 @@
       <c r="D113" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>143</v>
       </c>
@@ -3985,11 +3975,11 @@
       <c r="D114" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>144</v>
       </c>
@@ -4002,11 +3992,11 @@
       <c r="D115" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>145</v>
       </c>
@@ -4019,11 +4009,11 @@
       <c r="D116" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>146</v>
       </c>
@@ -4036,11 +4026,11 @@
       <c r="D117" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>147</v>
       </c>
@@ -4053,11 +4043,12 @@
       <c r="D118" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>148</v>
       </c>
@@ -4070,11 +4061,11 @@
       <c r="D119" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>149</v>
       </c>
@@ -4087,11 +4078,11 @@
       <c r="D120" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>150</v>
       </c>
@@ -4104,11 +4095,11 @@
       <c r="D121" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>151</v>
       </c>
@@ -4121,11 +4112,11 @@
       <c r="D122" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>152</v>
       </c>
@@ -4138,11 +4129,11 @@
       <c r="D123" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>153</v>
       </c>
@@ -4155,11 +4146,11 @@
       <c r="D124" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>154</v>
       </c>
@@ -4172,11 +4163,11 @@
       <c r="D125" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>155</v>
       </c>
@@ -4189,11 +4180,11 @@
       <c r="D126" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>156</v>
       </c>
@@ -4206,11 +4197,11 @@
       <c r="D127" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>158</v>
       </c>
@@ -4223,11 +4214,11 @@
       <c r="D128" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>159</v>
       </c>
@@ -4240,11 +4231,11 @@
       <c r="D129" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>160</v>
       </c>
@@ -4257,11 +4248,11 @@
       <c r="D130" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>161</v>
       </c>
@@ -4274,11 +4265,11 @@
       <c r="D131" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>162</v>
       </c>
@@ -4291,11 +4282,11 @@
       <c r="D132" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>163</v>
       </c>
@@ -4308,11 +4299,11 @@
       <c r="D133" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>164</v>
       </c>
@@ -4325,11 +4316,11 @@
       <c r="D134" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>165</v>
       </c>
@@ -4342,11 +4333,11 @@
       <c r="D135" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>166</v>
       </c>
@@ -4359,11 +4350,11 @@
       <c r="D136" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>167</v>
       </c>
@@ -4376,11 +4367,11 @@
       <c r="D137" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>168</v>
       </c>
@@ -4393,11 +4384,11 @@
       <c r="D138" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>169</v>
       </c>
@@ -4410,11 +4401,11 @@
       <c r="D139" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>170</v>
       </c>
@@ -4427,11 +4418,11 @@
       <c r="D140" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>171</v>
       </c>
@@ -4444,11 +4435,11 @@
       <c r="D141" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>172</v>
       </c>
@@ -4461,11 +4452,11 @@
       <c r="D142" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>173</v>
       </c>
@@ -4478,11 +4469,11 @@
       <c r="D143" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>174</v>
       </c>
@@ -4495,11 +4486,11 @@
       <c r="D144" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>175</v>
       </c>
@@ -4512,11 +4503,11 @@
       <c r="D145" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>176</v>
       </c>
@@ -4529,11 +4520,11 @@
       <c r="D146" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>177</v>
       </c>
@@ -4546,11 +4537,11 @@
       <c r="D147" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>178</v>
       </c>
@@ -4563,11 +4554,11 @@
       <c r="D148" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>179</v>
       </c>
@@ -4580,11 +4571,11 @@
       <c r="D149" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>180</v>
       </c>
@@ -4597,11 +4588,11 @@
       <c r="D150" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>181</v>
       </c>
@@ -4614,11 +4605,11 @@
       <c r="D151" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>182</v>
       </c>
@@ -4631,11 +4622,11 @@
       <c r="D152" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>183</v>
       </c>
@@ -4648,11 +4639,11 @@
       <c r="D153" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>184</v>
       </c>
@@ -4665,11 +4656,11 @@
       <c r="D154" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>185</v>
       </c>
@@ -4682,11 +4673,11 @@
       <c r="D155" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>186</v>
       </c>
@@ -4699,11 +4690,11 @@
       <c r="D156" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>187</v>
       </c>
@@ -4716,11 +4707,11 @@
       <c r="D157" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>188</v>
       </c>
@@ -4733,11 +4724,11 @@
       <c r="D158" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>189</v>
       </c>
@@ -4750,11 +4741,11 @@
       <c r="D159" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>190</v>
       </c>
@@ -4767,11 +4758,11 @@
       <c r="D160" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>191</v>
       </c>
@@ -4784,11 +4775,11 @@
       <c r="D161" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>192</v>
       </c>
@@ -4801,11 +4792,11 @@
       <c r="D162" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>193</v>
       </c>
@@ -4818,11 +4809,11 @@
       <c r="D163" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E163" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>194</v>
       </c>
@@ -4835,11 +4826,11 @@
       <c r="D164" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>195</v>
       </c>
@@ -4852,11 +4843,11 @@
       <c r="D165" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>196</v>
       </c>
@@ -4869,11 +4860,11 @@
       <c r="D166" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>197</v>
       </c>
@@ -4886,11 +4877,11 @@
       <c r="D167" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>198</v>
       </c>
@@ -4903,11 +4894,11 @@
       <c r="D168" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>199</v>
       </c>
@@ -4920,11 +4911,11 @@
       <c r="D169" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E169" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>200</v>
       </c>
@@ -4937,11 +4928,11 @@
       <c r="D170" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>201</v>
       </c>
@@ -4954,11 +4945,11 @@
       <c r="D171" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>202</v>
       </c>
@@ -4971,11 +4962,11 @@
       <c r="D172" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>203</v>
       </c>
@@ -4988,11 +4979,11 @@
       <c r="D173" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>204</v>
       </c>
@@ -5005,11 +4996,11 @@
       <c r="D174" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E174" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>205</v>
       </c>
@@ -5022,11 +5013,11 @@
       <c r="D175" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>206</v>
       </c>
@@ -5039,11 +5030,11 @@
       <c r="D176" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>207</v>
       </c>
@@ -5056,11 +5047,11 @@
       <c r="D177" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>208</v>
       </c>
@@ -5073,11 +5064,11 @@
       <c r="D178" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E178" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>209</v>
       </c>
@@ -5090,11 +5081,11 @@
       <c r="D179" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="E179" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>210</v>
       </c>
@@ -5107,11 +5098,11 @@
       <c r="D180" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>211</v>
       </c>
@@ -5124,11 +5115,11 @@
       <c r="D181" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>212</v>
       </c>
@@ -5141,11 +5132,11 @@
       <c r="D182" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="E182" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>213</v>
       </c>
@@ -5158,11 +5149,11 @@
       <c r="D183" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E183" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>214</v>
       </c>
@@ -5175,11 +5166,11 @@
       <c r="D184" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="E184" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>215</v>
       </c>
@@ -5192,11 +5183,11 @@
       <c r="D185" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>216</v>
       </c>
@@ -5209,11 +5200,11 @@
       <c r="D186" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>217</v>
       </c>
@@ -5226,11 +5217,11 @@
       <c r="D187" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>218</v>
       </c>
@@ -5243,11 +5234,11 @@
       <c r="D188" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E188" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>219</v>
       </c>
@@ -5260,11 +5251,11 @@
       <c r="D189" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="E189" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>220</v>
       </c>
@@ -5277,11 +5268,11 @@
       <c r="D190" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>221</v>
       </c>
@@ -5294,11 +5285,11 @@
       <c r="D191" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="E191" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>222</v>
       </c>
@@ -5311,11 +5302,11 @@
       <c r="D192" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E192" s="3" t="s">
+      <c r="E192" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>223</v>
       </c>
@@ -5328,11 +5319,11 @@
       <c r="D193" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>224</v>
       </c>
@@ -5345,11 +5336,11 @@
       <c r="D194" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E194" s="3" t="s">
+      <c r="E194" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>225</v>
       </c>
@@ -5362,11 +5353,11 @@
       <c r="D195" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="E195" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>226</v>
       </c>
@@ -5379,11 +5370,11 @@
       <c r="D196" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E196" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>227</v>
       </c>
@@ -5396,11 +5387,11 @@
       <c r="D197" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E197" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>228</v>
       </c>
@@ -5413,11 +5404,11 @@
       <c r="D198" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="E198" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>230</v>
       </c>
@@ -5430,11 +5421,11 @@
       <c r="D199" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E199" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>231</v>
       </c>
@@ -5447,11 +5438,11 @@
       <c r="D200" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="E200" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>232</v>
       </c>
@@ -5464,11 +5455,11 @@
       <c r="D201" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="E201" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>233</v>
       </c>
@@ -5481,11 +5472,11 @@
       <c r="D202" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="E202" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>234</v>
       </c>
@@ -5498,11 +5489,11 @@
       <c r="D203" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E203" s="3" t="s">
+      <c r="E203" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>235</v>
       </c>
@@ -5515,11 +5506,11 @@
       <c r="D204" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E204" s="3" t="s">
+      <c r="E204" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>236</v>
       </c>
@@ -5532,11 +5523,11 @@
       <c r="D205" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E205" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>237</v>
       </c>
@@ -5549,11 +5540,11 @@
       <c r="D206" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E206" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>238</v>
       </c>
@@ -5566,11 +5557,11 @@
       <c r="D207" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E207" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>239</v>
       </c>
@@ -5583,11 +5574,11 @@
       <c r="D208" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E208" s="3" t="s">
+      <c r="E208" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>240</v>
       </c>
@@ -5600,11 +5591,11 @@
       <c r="D209" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="E209" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>242</v>
       </c>
@@ -5617,11 +5608,11 @@
       <c r="D210" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E210" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>243</v>
       </c>
@@ -5634,11 +5625,11 @@
       <c r="D211" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E211" s="3" t="s">
+      <c r="E211" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>244</v>
       </c>
@@ -5651,11 +5642,11 @@
       <c r="D212" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="E212" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>245</v>
       </c>
@@ -5668,11 +5659,11 @@
       <c r="D213" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>246</v>
       </c>
@@ -5685,11 +5676,11 @@
       <c r="D214" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E214" s="3" t="s">
+      <c r="E214" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>247</v>
       </c>
@@ -5702,11 +5693,11 @@
       <c r="D215" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="E215" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>248</v>
       </c>
@@ -5719,11 +5710,11 @@
       <c r="D216" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E216" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>249</v>
       </c>
@@ -5736,11 +5727,11 @@
       <c r="D217" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E217" s="3" t="s">
+      <c r="E217" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>250</v>
       </c>
@@ -5753,11 +5744,11 @@
       <c r="D218" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E218" s="3" t="s">
+      <c r="E218" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>251</v>
       </c>
@@ -5770,11 +5761,11 @@
       <c r="D219" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E219" s="3" t="s">
+      <c r="E219" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>252</v>
       </c>
@@ -5787,11 +5778,11 @@
       <c r="D220" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E220" s="3" t="s">
+      <c r="E220" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>253</v>
       </c>
@@ -5804,11 +5795,11 @@
       <c r="D221" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E221" s="3" t="s">
+      <c r="E221" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>254</v>
       </c>
@@ -5821,11 +5812,11 @@
       <c r="D222" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E222" s="3" t="s">
+      <c r="E222" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>255</v>
       </c>
@@ -5838,11 +5829,11 @@
       <c r="D223" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E223" s="3" t="s">
+      <c r="E223" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>256</v>
       </c>
@@ -5855,11 +5846,11 @@
       <c r="D224" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E224" s="3" t="s">
+      <c r="E224" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>257</v>
       </c>
@@ -5872,11 +5863,11 @@
       <c r="D225" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E225" s="3" t="s">
+      <c r="E225" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>258</v>
       </c>
@@ -5889,11 +5880,11 @@
       <c r="D226" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E226" s="3" t="s">
+      <c r="E226" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>259</v>
       </c>
@@ -5906,11 +5897,11 @@
       <c r="D227" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E227" s="3" t="s">
+      <c r="E227" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>260</v>
       </c>
@@ -5923,11 +5914,11 @@
       <c r="D228" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E228" s="3" t="s">
+      <c r="E228" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>261</v>
       </c>
@@ -5940,11 +5931,11 @@
       <c r="D229" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="E229" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>262</v>
       </c>
@@ -5957,11 +5948,11 @@
       <c r="D230" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="E230" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>263</v>
       </c>
@@ -5974,11 +5965,11 @@
       <c r="D231" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E231" s="3" t="s">
+      <c r="E231" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>264</v>
       </c>
@@ -5991,11 +5982,11 @@
       <c r="D232" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E232" s="3" t="s">
+      <c r="E232" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>265</v>
       </c>
@@ -6008,11 +5999,11 @@
       <c r="D233" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E233" s="3" t="s">
+      <c r="E233" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>266</v>
       </c>
@@ -6025,11 +6016,11 @@
       <c r="D234" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E234" s="3" t="s">
+      <c r="E234" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>267</v>
       </c>
@@ -6042,11 +6033,11 @@
       <c r="D235" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E235" s="3" t="s">
+      <c r="E235" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>268</v>
       </c>
@@ -6059,11 +6050,11 @@
       <c r="D236" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E236" s="3" t="s">
+      <c r="E236" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>269</v>
       </c>
@@ -6076,11 +6067,11 @@
       <c r="D237" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E237" s="3" t="s">
+      <c r="E237" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>270</v>
       </c>
@@ -6093,11 +6084,11 @@
       <c r="D238" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E238" s="3" t="s">
+      <c r="E238" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>271</v>
       </c>
@@ -6110,11 +6101,11 @@
       <c r="D239" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E239" s="3" t="s">
+      <c r="E239" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>272</v>
       </c>
@@ -6127,11 +6118,11 @@
       <c r="D240" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E240" s="3" t="s">
+      <c r="E240" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>273</v>
       </c>
@@ -6144,11 +6135,11 @@
       <c r="D241" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="E241" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>274</v>
       </c>
@@ -6161,256 +6152,12 @@
       <c r="D242" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E242" s="3" t="s">
+      <c r="E242" s="2" t="s">
         <v>529</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Arsene" xr:uid="{E534A3A3-3F72-4A04-B6BC-E1781BD19EC8}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Zorro" xr:uid="{52A13C82-E4D1-4311-9E18-B7F4781BE547}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Jack-o'-Lantern" xr:uid="{94E60846-1B5D-4E68-A40E-82F114C5F3FC}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Pixie" xr:uid="{9A2990E9-487A-4C2D-B9E4-B501AD4C3283}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Agathion" xr:uid="{3D86C1D2-DF2F-45FF-ABCD-351DB1ABB491}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Mandrake" xr:uid="{E620A7FE-7B88-4F9E-B4DB-AE1C7BC992C4}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Captain Kidd" xr:uid="{1898BF37-C75F-478A-8FE1-AC0C97EDF17E}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Bicorn" xr:uid="{34C5549B-65CD-49B3-B08B-81225DAC79C8}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Cait Sith" xr:uid="{84E925C3-1C25-4DC2-B931-B950838CF715}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Carmen" xr:uid="{1985919F-7CA6-4A2E-BF60-91E0406AAF9A}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Incubus" xr:uid="{82FA66A4-F463-4106-99FC-F4193C0DD558}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Silky" xr:uid="{687DB157-7925-4CBF-95DD-DFC9C0BF6F5E}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Saki Mitama" xr:uid="{67897383-9D7F-4818-BC93-8A442E8A60FC}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Kelpie" xr:uid="{3C56250A-4245-47DB-B736-947C552830F8}"/>
-    <hyperlink ref="A15" r:id="rId15" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Genbu" xr:uid="{A7B8275B-6B52-4DD8-9C7D-B57E4052A178}"/>
-    <hyperlink ref="A16" r:id="rId16" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Succubus" xr:uid="{F354128C-3ED9-464A-A71F-E96E4F6254EB}"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Obariyon" xr:uid="{22972EF2-0D88-4B53-9D84-2DAE551DA243}"/>
-    <hyperlink ref="A18" r:id="rId18" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Berith" xr:uid="{88E9C1F1-40F8-406D-9018-69346F7EF6BA}"/>
-    <hyperlink ref="A19" r:id="rId19" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Angel" xr:uid="{94BBF4DC-4CB5-46D1-BDB2-019BCB7AE541}"/>
-    <hyperlink ref="A20" r:id="rId20" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Koropokkuru" xr:uid="{0CB1FD42-0546-49F5-BECA-B68FC0E92DCA}"/>
-    <hyperlink ref="A21" r:id="rId21" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Hua Po" xr:uid="{368A15B3-AEDF-4ABF-A563-F1CDABD91AEC}"/>
-    <hyperlink ref="A22" r:id="rId22" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Mokoi" xr:uid="{A8D8FE33-6EE9-4C9B-B11C-B045114C1958}"/>
-    <hyperlink ref="A23" r:id="rId23" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Regent" xr:uid="{F69F6E23-1A1A-48FB-8C6E-25C14F9B65BB}"/>
-    <hyperlink ref="A24" r:id="rId24" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Slime" xr:uid="{30DF2133-E494-48E5-A9CB-EC64D3BB1D4F}"/>
-    <hyperlink ref="A25" r:id="rId25" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Orpheus F" xr:uid="{F34CE468-7ADB-46F1-A78E-F114B0F75E9C}"/>
-    <hyperlink ref="A26" r:id="rId26" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Jack Frost" xr:uid="{D906096E-09D4-46E2-9270-8FDF6E6965FB}"/>
-    <hyperlink ref="A27" r:id="rId27" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Apsaras" xr:uid="{88B22745-75B5-4EA8-AF07-5BA030F679C7}"/>
-    <hyperlink ref="A28" r:id="rId28" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Koppa Tengu" xr:uid="{EAC9AFD7-2E58-4D97-8818-7F55190C7EA9}"/>
-    <hyperlink ref="A29" r:id="rId29" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Kodama" xr:uid="{C6A1C522-A98F-44FC-8FE0-4C995F9E40AA}"/>
-    <hyperlink ref="A30" r:id="rId30" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Onmoraki" xr:uid="{D1243C15-B952-4DB4-9441-86F3030A4E2F}"/>
-    <hyperlink ref="A31" r:id="rId31" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Kusi Mitama" xr:uid="{5C5B8D28-C9D3-4082-9DAF-021A837FBBDC}"/>
-    <hyperlink ref="A32" r:id="rId32" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Orpheus F Picaro" xr:uid="{0D5A4282-11F4-42B4-84B1-9004A9998F89}"/>
-    <hyperlink ref="A33" r:id="rId33" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Ame-no-Uzume" xr:uid="{974B87B7-59A6-4187-9E28-C53FC97DB89A}"/>
-    <hyperlink ref="A34" r:id="rId34" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Ippon-Datara" xr:uid="{09B9E28F-92B9-47F8-9AB3-E282EBA7089F}"/>
-    <hyperlink ref="A35" r:id="rId35" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Archangel" xr:uid="{10EC920B-E7E0-4669-8790-282884E07194}"/>
-    <hyperlink ref="A36" r:id="rId36" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Inugami" xr:uid="{343E185B-25EF-413B-A5A7-AC2D0B0A4A5A}"/>
-    <hyperlink ref="A37" r:id="rId37" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Queen's Necklace" xr:uid="{EAD89990-F5E1-4108-B6A6-C089B69F7564}"/>
-    <hyperlink ref="A38" r:id="rId38" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Goemon" xr:uid="{042D9DF5-00D5-4511-BD26-C334C1F5B48A}"/>
-    <hyperlink ref="A39" r:id="rId39" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Shiisaa" xr:uid="{2B352030-14DA-4FFE-A667-F887A5488D3C}"/>
-    <hyperlink ref="A40" r:id="rId40" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Makami" xr:uid="{E9F138AD-08CA-46C6-B831-86E679032B64}"/>
-    <hyperlink ref="A41" r:id="rId41" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/High Pixie" xr:uid="{9D4ECAFF-64B0-4AC6-BABF-1304970BCA74}"/>
-    <hyperlink ref="A42" r:id="rId42" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Eligor" xr:uid="{5989717A-6A5A-4498-9E4F-E3269DC95DE2}"/>
-    <hyperlink ref="A43" r:id="rId43" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Kaguya" xr:uid="{0DC5AA9B-0EF4-4EB3-A195-04943F8B2C87}"/>
-    <hyperlink ref="A44" r:id="rId44" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Suzaku" xr:uid="{B1BBA502-5DA6-423B-8218-CEAFC0C83A23}"/>
-    <hyperlink ref="A45" r:id="rId45" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Nekomata" xr:uid="{F08E3572-CF4F-484B-A0C3-E67729D7FA5B}"/>
-    <hyperlink ref="A46" r:id="rId46" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Orobas" xr:uid="{8828B3BB-ED7A-4CC2-869A-64CEF81B6767}"/>
-    <hyperlink ref="A47" r:id="rId47" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Sudama" xr:uid="{27D726EB-4ADF-4DDA-9E7B-93495463D350}"/>
-    <hyperlink ref="A48" r:id="rId48" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Matador" xr:uid="{08DE7945-A9AB-4E59-90C0-68627A9A20AD}"/>
-    <hyperlink ref="A49" r:id="rId49" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Shiki-Ouji" xr:uid="{979478BB-94A7-4E0D-BE5D-97C47BA92701}"/>
-    <hyperlink ref="A50" r:id="rId50" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Black Ooze" xr:uid="{8DFF2A49-572C-4ED7-A6BC-09614BE6C423}"/>
-    <hyperlink ref="A51" r:id="rId51" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Leanan Sidhe" xr:uid="{B5628A9A-2834-407D-B7A1-38C70D5CEDD6}"/>
-    <hyperlink ref="A52" r:id="rId52" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Flauros" xr:uid="{A1BED124-2DC6-4C53-B95D-71BB5EDD232D}"/>
-    <hyperlink ref="A53" r:id="rId53" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Izanagi" xr:uid="{EC16798E-E8AB-4053-A3CA-DC0436BAAD9E}"/>
-    <hyperlink ref="A54" r:id="rId54" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Yaksini" xr:uid="{9E7E959A-5408-4F6C-A256-EF3835FA10FD}"/>
-    <hyperlink ref="A55" r:id="rId55" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Stone of Scone" xr:uid="{F349B113-647E-4E04-9B3A-4B12B71BF05F}"/>
-    <hyperlink ref="A56" r:id="rId56" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Oni" xr:uid="{2F9DE854-BEBB-4DD3-A7CC-AE393CB7AC1E}"/>
-    <hyperlink ref="A57" r:id="rId57" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Nue" xr:uid="{70E5E101-99BA-4B5B-98EE-604E5B06D99C}"/>
-    <hyperlink ref="A58" r:id="rId58" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Johanna" xr:uid="{05A63AC4-9DC2-437E-88DE-F67C3348BC36}"/>
-    <hyperlink ref="A59" r:id="rId59" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Orthrus" xr:uid="{F8E9394C-6376-48D9-91C5-B3ACBE8CEF4C}"/>
-    <hyperlink ref="A60" r:id="rId60" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Phoenix" xr:uid="{7F61F5FC-AE42-4D34-B088-6F8B90B2DAEC}"/>
-    <hyperlink ref="A61" r:id="rId61" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Jikokuten" xr:uid="{81BDB6A9-3896-4AB8-8F4C-225C65DA10DD}"/>
-    <hyperlink ref="A62" r:id="rId62" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Nigi Mitama" xr:uid="{8195CC63-FE41-4E3D-B585-CD0F09205B73}"/>
-    <hyperlink ref="A63" r:id="rId63" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Izanagi Picaro" xr:uid="{0A560973-FC19-4DE1-8AE8-58DAFA219037}"/>
-    <hyperlink ref="A64" r:id="rId64" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Sandman" xr:uid="{10E6643B-1E74-466E-869C-213239341862}"/>
-    <hyperlink ref="A65" r:id="rId65" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Fuu-Ki" xr:uid="{EECF5ABF-D1D8-4CDE-9DAC-E42798D23E7B}"/>
-    <hyperlink ref="A66" r:id="rId66" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Naga" xr:uid="{A08C8107-C0E7-4455-973F-484142CD3249}"/>
-    <hyperlink ref="A67" r:id="rId67" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Rakshasa" xr:uid="{1DF0B9C7-C716-4628-97E5-EB745DE51979}"/>
-    <hyperlink ref="A68" r:id="rId68" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Sui-Ki" xr:uid="{240C6BD4-3847-4547-A0B5-9D98C97E9CDF}"/>
-    <hyperlink ref="A69" r:id="rId69" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Koh-i-Noor" xr:uid="{3C8CF19F-3089-4110-8177-FD780858B478}"/>
-    <hyperlink ref="A70" r:id="rId70" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Setanta" xr:uid="{98479A91-E8BA-4F98-8978-1E5AD496E2F9}"/>
-    <hyperlink ref="A71" r:id="rId71" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Anzu" xr:uid="{8CEFDC37-0FE0-42CA-97B8-ED06FF91DAE0}"/>
-    <hyperlink ref="A72" r:id="rId72" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Kin-Ki" xr:uid="{68467982-02D7-4406-8E96-388AC805760E}"/>
-    <hyperlink ref="A73" r:id="rId73" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Kaguya Picaro" xr:uid="{A84C141D-BF2C-4600-BBE1-F7E09567335E}"/>
-    <hyperlink ref="A74" r:id="rId74" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Orpheus" xr:uid="{9D4679B0-87B1-4786-AB9B-DB5F1AC091AC}"/>
-    <hyperlink ref="A75" r:id="rId75" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Isis" xr:uid="{BFE9DA01-5F73-4D5D-A178-73B894DC58D5}"/>
-    <hyperlink ref="A76" r:id="rId76" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Lamia" xr:uid="{0FE8DAC6-827E-4BB4-B202-08B858079CBB}"/>
-    <hyperlink ref="A77" r:id="rId77" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Take-Minakata" xr:uid="{67732E31-1C0F-4B02-896A-768BBB2899C1}"/>
-    <hyperlink ref="A78" r:id="rId78" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Clotho" xr:uid="{29A682B9-42DD-4939-AE76-D6FA2F78836A}"/>
-    <hyperlink ref="A79" r:id="rId79" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Andras" xr:uid="{3A2888A3-21E7-43E4-B04D-009F285BFBB1}"/>
-    <hyperlink ref="A80" r:id="rId80" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Tam Lin" xr:uid="{8FB3B835-1E95-4B7C-9A33-417CF1B025DD}"/>
-    <hyperlink ref="A81" r:id="rId81" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Choronzon" xr:uid="{63F51AAA-A3E7-40BB-B61D-DD8FDFA63FAC}"/>
-    <hyperlink ref="A82" r:id="rId82" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Pisaca" xr:uid="{2207B65B-34A3-44F8-A366-0F42E959D26E}"/>
-    <hyperlink ref="A83" r:id="rId83" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Orpheus Picaro" xr:uid="{7967E209-8F84-40E8-8EA8-AA909D85661F}"/>
-    <hyperlink ref="A84" r:id="rId84" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Principality" xr:uid="{90976792-AD04-47A9-BBCC-F14A845C9439}"/>
-    <hyperlink ref="A85" r:id="rId85" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Ara Mitama" xr:uid="{59CB922F-7039-474B-BA2B-52C0BEAED7DF}"/>
-    <hyperlink ref="A86" r:id="rId86" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Ariadne" xr:uid="{27FBB4CA-D7B3-415F-8465-CC9BA1909DF3}"/>
-    <hyperlink ref="A87" r:id="rId87" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Orlov" xr:uid="{D6F14354-05DC-42E6-9FE4-630ADE9321C7}"/>
-    <hyperlink ref="A88" r:id="rId88" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Neko Shogun" xr:uid="{60C1F622-76E0-4E9F-A4B3-404851247806}"/>
-    <hyperlink ref="A89" r:id="rId89" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Kurama Tengu" xr:uid="{ADCCB070-9558-47E8-AF01-A8F2D6260B29}"/>
-    <hyperlink ref="A90" r:id="rId90" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Necronomicon" xr:uid="{EB86C5EA-5A1E-4E15-AACF-293CF0B7E519}"/>
-    <hyperlink ref="A91" r:id="rId91" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Zouchouten" xr:uid="{6F4815DB-05F1-4F34-8B45-B71FB920A4DA}"/>
-    <hyperlink ref="A92" r:id="rId92" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Lilim" xr:uid="{5EBB73D1-4A0C-4934-9CC1-760F4A1A4ECA}"/>
-    <hyperlink ref="A93" r:id="rId93" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Decarabia" xr:uid="{CB50E30E-BE04-45BC-9350-B8E9F1913EF7}"/>
-    <hyperlink ref="A94" r:id="rId94" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Mithra" xr:uid="{5869ABF1-60FA-4340-ABE0-4D5DE5E7C6C8}"/>
-    <hyperlink ref="A95" r:id="rId95" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Mothman" xr:uid="{993F7286-D090-44F1-860E-A73C66F906CA}"/>
-    <hyperlink ref="A96" r:id="rId96" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Thunderbird" xr:uid="{92206F61-2325-461C-88DE-E2291F4317DE}"/>
-    <hyperlink ref="A97" r:id="rId97" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Anubis" xr:uid="{D7C29747-66F0-418F-9EE9-15B28FE03FD3}"/>
-    <hyperlink ref="A98" r:id="rId98" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Arahabaki" xr:uid="{21F4F3F2-5A91-4B66-BBD4-67FC11B62C7F}"/>
-    <hyperlink ref="A99" r:id="rId99" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Lachesis" xr:uid="{FB5E6C0D-278D-454D-AF44-A605C1D55226}"/>
-    <hyperlink ref="A100" r:id="rId100" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Emperor's Amulet" xr:uid="{0A9C3812-1D4C-4BDE-8E96-40236F2EAD9A}"/>
-    <hyperlink ref="A101" r:id="rId101" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Milady" xr:uid="{82B129D9-F673-45C3-B202-C9003F0BC535}"/>
-    <hyperlink ref="A102" r:id="rId102" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Thoth" xr:uid="{9A8ABFBF-0C77-486A-9631-C493C73062F7}"/>
-    <hyperlink ref="A103" r:id="rId103" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Kaiwan" xr:uid="{9B378591-B750-4409-BAAF-3C48F103890E}"/>
-    <hyperlink ref="A104" r:id="rId104" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Hell Biker" xr:uid="{7C313E71-18CD-4503-9F43-4E4366B3ABA4}"/>
-    <hyperlink ref="A105" r:id="rId105" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Belphegor" xr:uid="{1BC10BF8-ADD2-43D1-8C80-6387931A4BF6}"/>
-    <hyperlink ref="A106" r:id="rId106" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Legion" xr:uid="{0D4DAD2E-4303-49F7-A8DD-DCA70F2EB7BA}"/>
-    <hyperlink ref="A107" r:id="rId107" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/White Rider" xr:uid="{F77366CB-B2C6-4F97-B390-5F51860E0074}"/>
-    <hyperlink ref="A108" r:id="rId108" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Atropos" xr:uid="{16DFBC52-97B3-4C64-8B3A-30C877112712}"/>
-    <hyperlink ref="A109" r:id="rId109" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Mithras" xr:uid="{F97A0CF0-663E-45BD-971C-1A7524BB8512}"/>
-    <hyperlink ref="A110" r:id="rId110" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Unicorn" xr:uid="{0EC0AF7C-9481-4970-9CFC-0446254BE19A}"/>
-    <hyperlink ref="A111" r:id="rId111" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Kikuri-Hime" xr:uid="{6650996C-82BD-4A6B-BC92-2CA7BEFF6393}"/>
-    <hyperlink ref="A112" r:id="rId112" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Hariti" xr:uid="{8084C712-1DE7-4EDD-B00C-CC69A085AEE6}"/>
-    <hyperlink ref="A113" r:id="rId113" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Daisoujou" xr:uid="{0B913906-50DA-41DB-BA85-AF200553723C}"/>
-    <hyperlink ref="A114" r:id="rId114" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Hope Diamond" xr:uid="{D5A80B9D-FA47-4770-8FF7-81E36595A317}"/>
-    <hyperlink ref="A115" r:id="rId115" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Power" xr:uid="{2A934B5F-3A8C-4AC2-B692-5234B4E87F69}"/>
-    <hyperlink ref="A116" r:id="rId116" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Red Rider" xr:uid="{8D203ACF-F6DB-46AE-AE58-5189BA528140}"/>
-    <hyperlink ref="A117" r:id="rId117" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Ose" xr:uid="{5ABEB329-5947-4FC6-8E05-E1E7C6C4AD24}"/>
-    <hyperlink ref="A118" r:id="rId118" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Kushinada" xr:uid="{4997EA55-F0A2-4D94-969C-45E976DAE31F}"/>
-    <hyperlink ref="A119" r:id="rId119" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Kumbhanda" xr:uid="{F89EDC08-E674-4EDD-A2AD-EA50E2970AEC}"/>
-    <hyperlink ref="A120" r:id="rId120" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Ariadne Picaro" xr:uid="{6C890064-1C53-4207-95FD-52E6511FCA0A}"/>
-    <hyperlink ref="A121" r:id="rId121" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Hecatoncheires" xr:uid="{96F72AB2-217D-496B-AA8F-574BDB4D36C0}"/>
-    <hyperlink ref="A122" r:id="rId122" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Queen Mab" xr:uid="{6CFA5472-87A3-4CC3-A875-F1BBA5D951DD}"/>
-    <hyperlink ref="A123" r:id="rId123" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Girimehkala" xr:uid="{D916B62D-8D62-4A7F-B9D2-E18185E5FA58}"/>
-    <hyperlink ref="A124" r:id="rId124" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Yurlungur" xr:uid="{770350A6-6154-4DA2-B917-BAD7F4B3185E}"/>
-    <hyperlink ref="A125" r:id="rId125" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Valkyrie" xr:uid="{9584D4BE-F1DA-4BB6-914E-C8E569EBC8B1}"/>
-    <hyperlink ref="A126" r:id="rId126" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Magatsu-Izanagi" xr:uid="{D7FF33AF-EFBF-4DD0-B26E-74DA7DFAB3FF}"/>
-    <hyperlink ref="A127" r:id="rId127" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Ananta" xr:uid="{2E272D2C-6FC2-4E29-9A86-A6D65A9ADA50}"/>
-    <hyperlink ref="A128" r:id="rId128" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Robin Hood" xr:uid="{4AF57A08-7ED4-4517-AD07-3785C9527530}"/>
-    <hyperlink ref="A129" r:id="rId129" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Byakko" xr:uid="{22961F63-5686-4269-B16D-2BDDDF289CD5}"/>
-    <hyperlink ref="A130" r:id="rId130" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Pazuzu" xr:uid="{C49F0F95-086E-4DB0-BD2A-B5F0048E4FAB}"/>
-    <hyperlink ref="A131" r:id="rId131" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Athena" xr:uid="{1075F77B-7ACC-4826-B166-3826A5274DD8}"/>
-    <hyperlink ref="A132" r:id="rId132" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Fortuna" xr:uid="{583F4FEB-D0B1-4AA6-898F-531788667B08}"/>
-    <hyperlink ref="A133" r:id="rId133" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Horus" xr:uid="{7AC1C343-608D-47FF-99AB-580C01287753}"/>
-    <hyperlink ref="A134" r:id="rId134" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Rangda" xr:uid="{68E37F9D-48DC-4E85-A70C-70CB2FF7FD33}"/>
-    <hyperlink ref="A135" r:id="rId135" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Narcissus" xr:uid="{003CC855-E179-46B6-B912-7108FF77866D}"/>
-    <hyperlink ref="A136" r:id="rId136" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Magatsu-Izanagi Picaro" xr:uid="{97882E03-98F3-4EF9-9ABB-51C8264EF5EB}"/>
-    <hyperlink ref="A137" r:id="rId137" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Bugs" xr:uid="{772B43D0-168A-48F5-A656-8EEF9973A8C6}"/>
-    <hyperlink ref="A138" r:id="rId138" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Koumokuten" xr:uid="{E6ED8912-5541-4AA3-A9E0-842378FA2063}"/>
-    <hyperlink ref="A139" r:id="rId139" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Crystal Skull" xr:uid="{94FF7169-9DB1-4D9D-918C-83656B9AF06B}"/>
-    <hyperlink ref="A140" r:id="rId140" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Sarasvati" xr:uid="{78D023AC-8CFA-46BF-B5A3-976F0F891471}"/>
-    <hyperlink ref="A141" r:id="rId141" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Dakini" xr:uid="{A2434783-F34A-45CB-A225-2574B93B938C}"/>
-    <hyperlink ref="A142" r:id="rId142" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Athena Picaro" xr:uid="{D653F936-FCD1-48FC-A6CB-FE3603CC0E1A}"/>
-    <hyperlink ref="A143" r:id="rId143" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Tsukiyomi" xr:uid="{2BDA81B5-4AF7-42EB-948A-59F8188192FC}"/>
-    <hyperlink ref="A144" r:id="rId144" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Jatayu" xr:uid="{73D4E149-74AC-4C3E-9DE6-40470BC2C17C}"/>
-    <hyperlink ref="A145" r:id="rId145" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Seth" xr:uid="{41FC7865-8DFC-4B95-96E8-78F95D199353}"/>
-    <hyperlink ref="A146" r:id="rId146" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Barong" xr:uid="{783B3858-1553-47C7-8CAF-F5118456D9B1}"/>
-    <hyperlink ref="A147" r:id="rId147" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Mishaguji" xr:uid="{F8F92B03-CD04-4198-B26B-FF0CD6D6037D}"/>
-    <hyperlink ref="A148" r:id="rId148" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Norn" xr:uid="{76848CCC-3CAA-48F2-BC9E-D392C739CB29}"/>
-    <hyperlink ref="A149" r:id="rId149" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Garuda" xr:uid="{EF78DD8C-DCC6-4AB2-95A4-5124D9BEED3E}"/>
-    <hyperlink ref="A150" r:id="rId150" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Skadi" xr:uid="{B458574A-7FB0-45A3-A630-8C14EB5E4B0C}"/>
-    <hyperlink ref="A151" r:id="rId151" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Ganesha" xr:uid="{15EEC65E-74B0-419E-B482-AFB5A5EA8C28}"/>
-    <hyperlink ref="A152" r:id="rId152" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Pale Rider" xr:uid="{57EB9C71-41C3-4D5B-A610-FE0070996DED}"/>
-    <hyperlink ref="A153" r:id="rId153" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Okuninushi" xr:uid="{F32B3DCD-FBFB-4206-9C03-7F43809C0692}"/>
-    <hyperlink ref="A154" r:id="rId154" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Cerberus" xr:uid="{EE5781B9-3DC5-449A-AD2A-1A4CA764884F}"/>
-    <hyperlink ref="A155" r:id="rId155" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Raja Naga" xr:uid="{BADDFF13-6DC1-4B8E-AE65-CE5707BADA72}"/>
-    <hyperlink ref="A156" r:id="rId156" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Tsukiyomi Picaro" xr:uid="{95CD1408-DC5F-4D0B-965A-514CD90807E8}"/>
-    <hyperlink ref="A157" r:id="rId157" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Titania" xr:uid="{F910C5E6-3B5B-4A3A-9814-5E39791C5567}"/>
-    <hyperlink ref="A158" r:id="rId158" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Parvati" xr:uid="{0DC047BC-AE15-4876-88EB-E7EFAAEE3FB6}"/>
-    <hyperlink ref="A159" r:id="rId159" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Asterius" xr:uid="{AE86A6E5-2A4A-4220-8944-6036F0EE96B1}"/>
-    <hyperlink ref="A160" r:id="rId160" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Yatagarasu" xr:uid="{4615C1C7-CD54-43B9-BBEB-7AD9CE623570}"/>
-    <hyperlink ref="A161" r:id="rId161" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Melchizedek" xr:uid="{7207EED3-1D8B-4D52-98A5-C8C6C01B3D37}"/>
-    <hyperlink ref="A162" r:id="rId162" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Baphomet" xr:uid="{6355852A-76C4-4D8D-AF46-2C0764B6AF64}"/>
-    <hyperlink ref="A163" r:id="rId163" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Black Rider" xr:uid="{22BADDAB-BB7D-48EC-A187-FAD4C1687EB3}"/>
-    <hyperlink ref="A164" r:id="rId164" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Trumpeter" xr:uid="{E0A9E76A-215F-41E0-934A-CF183169D2B9}"/>
-    <hyperlink ref="A165" r:id="rId165" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Moloch" xr:uid="{BE7609A8-CB8E-46AB-B881-54A6CE44A1DA}"/>
-    <hyperlink ref="A166" r:id="rId166" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Lilith" xr:uid="{41B9D9A6-DF7B-4A42-81D5-5A607E0F35F6}"/>
-    <hyperlink ref="A167" r:id="rId167" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Orichalcum" xr:uid="{82614EFD-CD94-4065-AB4A-D18E03421A03}"/>
-    <hyperlink ref="A168" r:id="rId168" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/King Frost" xr:uid="{C83222A5-AF66-4541-82BF-5B478733C212}"/>
-    <hyperlink ref="A169" r:id="rId169" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Asterius Picaro" xr:uid="{F76EB890-6BD0-4F84-BC40-E68AF223D2C8}"/>
-    <hyperlink ref="A170" r:id="rId170" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Chernobog" xr:uid="{EE4D896C-E3CE-4344-89C7-0E96D64F2E74}"/>
-    <hyperlink ref="A171" r:id="rId171" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Seiryu" xr:uid="{A1B535A0-32C1-45B9-8546-13EBC97008A1}"/>
-    <hyperlink ref="A172" r:id="rId172" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Forneus" xr:uid="{4046831E-4F0B-480B-93D0-8E7269C5A922}"/>
-    <hyperlink ref="A173" r:id="rId173" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Kali" xr:uid="{DFBFA6DB-1CE2-4E6B-B888-087102F3029E}"/>
-    <hyperlink ref="A174" r:id="rId174" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Thor" xr:uid="{579CBCCA-36F4-477F-8DA7-0213E0A6D2F3}"/>
-    <hyperlink ref="A175" r:id="rId175" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Hanuman" xr:uid="{DC300912-7951-49A6-8A4D-2FFBA1504301}"/>
-    <hyperlink ref="A176" r:id="rId176" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Yamata-no-Orochi" xr:uid="{5AFC160E-F060-4A43-A972-0CD9D8B7CC33}"/>
-    <hyperlink ref="A177" r:id="rId177" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Thanatos" xr:uid="{4BFF5394-8E33-4CB5-B0FA-66C1B64818ED}"/>
-    <hyperlink ref="A178" r:id="rId178" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Atavaka" xr:uid="{EF0235BE-541F-44A7-9C57-F09F2CBEBC9F}"/>
-    <hyperlink ref="A179" r:id="rId179" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Oberon" xr:uid="{5FA7F9B9-4F04-4E0D-93FC-B0B877DA33AB}"/>
-    <hyperlink ref="A180" r:id="rId180" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Quetzalcoatl" xr:uid="{CF8A1544-77C8-4ABB-9C09-B453FE3AAC3F}"/>
-    <hyperlink ref="A181" r:id="rId181" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Black Frost" xr:uid="{4EAA93F3-C75E-415A-B42C-B91EC2C7EAD4}"/>
-    <hyperlink ref="A182" r:id="rId182" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Bishamonten" xr:uid="{F3E9AF4C-1F5D-4E84-B321-01CA9C4E5F05}"/>
-    <hyperlink ref="A183" r:id="rId183" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Dominion" xr:uid="{0883073D-6C18-40D1-9952-C398105CF523}"/>
-    <hyperlink ref="A184" r:id="rId184" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Vasuki" xr:uid="{E9D11649-4135-47CA-9A8D-F5CB86434EC5}"/>
-    <hyperlink ref="A185" r:id="rId185" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Lakshmi" xr:uid="{3CEC9137-7F4F-4608-95F2-22895C318D34}"/>
-    <hyperlink ref="A186" r:id="rId186" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Thanatos Picaro" xr:uid="{A3CF7F3C-299E-4B2F-BE4B-550157075B56}"/>
-    <hyperlink ref="A187" r:id="rId187" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Loa" xr:uid="{6CADA2E8-5B30-42C7-B4C5-8E8A029BF753}"/>
-    <hyperlink ref="A188" r:id="rId188" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Byakhee" xr:uid="{36E88572-1C7B-4A6F-92B8-0F70E97E34C9}"/>
-    <hyperlink ref="A189" r:id="rId189" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Dionysus" xr:uid="{08FAD900-AD68-4551-B183-C4ADF5C63B36}"/>
-    <hyperlink ref="A190" r:id="rId190" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Throne" xr:uid="{85A29694-00DA-4E34-82BF-E1A52A7B8793}"/>
-    <hyperlink ref="A191" r:id="rId191" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Mot" xr:uid="{C7344702-4EE8-493B-BF6D-FF0114A82F24}"/>
-    <hyperlink ref="A192" r:id="rId192" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Macabre" xr:uid="{D68CA548-A2AB-4167-B849-AEC3C79536FF}"/>
-    <hyperlink ref="A193" r:id="rId193" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Mara" xr:uid="{16199BAD-6C70-445C-9E26-520035CA7202}"/>
-    <hyperlink ref="A194" r:id="rId194" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Chimera" xr:uid="{CBAF2388-761E-4E64-A23C-C413FA6EBC7D}"/>
-    <hyperlink ref="A195" r:id="rId195" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Nebiros" xr:uid="{53B510A5-F655-498E-9F87-2C2A4B7435B1}"/>
-    <hyperlink ref="A196" r:id="rId196" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Loki" xr:uid="{1A984477-203E-4101-87E4-2F0B840E6E68}"/>
-    <hyperlink ref="A197" r:id="rId197" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Sandalphon" xr:uid="{C9A2E81B-5E61-43F7-B23F-35242F357254}"/>
-    <hyperlink ref="A198" r:id="rId198" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Abaddon" xr:uid="{FCACF0CB-B814-44B6-AEFB-A0FDC065F174}"/>
-    <hyperlink ref="A199" r:id="rId199" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Cendrillon" xr:uid="{96EB29F7-598E-4EA5-8619-198560708EA9}"/>
-    <hyperlink ref="A200" r:id="rId200" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Raoul" xr:uid="{F9A0779E-B086-4DBF-9856-69BFC8EC1F13}"/>
-    <hyperlink ref="A201" r:id="rId201" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Kohryu" xr:uid="{BC5925A2-07AD-4E94-B96F-572A374692EA}"/>
-    <hyperlink ref="A202" r:id="rId202" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Asura" xr:uid="{0F18D97C-0633-41DC-98D8-C52EAC95E44A}"/>
-    <hyperlink ref="A203" r:id="rId203" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Cu Chulainn" xr:uid="{12CA12BF-6BDB-442C-B698-8989AFF9361F}"/>
-    <hyperlink ref="A204" r:id="rId204" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Scathach" xr:uid="{0F93FB3C-CB6F-4470-AB53-F7060F2C1D3B}"/>
-    <hyperlink ref="A205" r:id="rId205" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Gabriel" xr:uid="{150C00DA-3347-491D-8722-CF34352C2F2F}"/>
-    <hyperlink ref="A206" r:id="rId206" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Raphael" xr:uid="{7EDA9189-02AE-4035-A77E-1238E2D5BCDB}"/>
-    <hyperlink ref="A207" r:id="rId207" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Zaou-Gongen" xr:uid="{A533EFF8-948C-43C0-AD42-FF65C1310E1C}"/>
-    <hyperlink ref="A208" r:id="rId208" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Sraosha" xr:uid="{2D1E4CFF-8248-4D1F-8B28-8BB2745057AC}"/>
-    <hyperlink ref="A209" r:id="rId209" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Vohu Manah" xr:uid="{5C7FDC28-9BE0-48D0-B697-EE784A5C9FF4}"/>
-    <hyperlink ref="A210" r:id="rId210" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Izanagi-no-Okami" xr:uid="{5D1C2675-F40D-496E-A73F-9B467586D21D}"/>
-    <hyperlink ref="A211" r:id="rId211" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Alilat" xr:uid="{712C2EE3-2968-4278-A537-C1FA8627BCA5}"/>
-    <hyperlink ref="A212" r:id="rId212" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Uriel" xr:uid="{B6B6EFB4-FA07-46E9-877B-4D0279A9E524}"/>
-    <hyperlink ref="A213" r:id="rId213" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Messiah" xr:uid="{FEBFF1CC-C9C3-4A4E-9AFD-4396CE4E7951}"/>
-    <hyperlink ref="A214" r:id="rId214" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Baal" xr:uid="{F1150436-E517-45E9-A2B9-0F3B6DE57280}"/>
-    <hyperlink ref="A215" r:id="rId215" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Attis" xr:uid="{EA1D9557-CE5B-4A13-9126-B93C78753222}"/>
-    <hyperlink ref="A216" r:id="rId216" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Belial" xr:uid="{699061DE-5FDC-4184-A68A-65F6FEEBB644}"/>
-    <hyperlink ref="A217" r:id="rId217" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Shiva" xr:uid="{89240136-AAE5-4BD5-A8AE-D56D5FA99610}"/>
-    <hyperlink ref="A218" r:id="rId218" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Vishnu" xr:uid="{B8415FF8-5E11-44C1-9842-BB759FADA274}"/>
-    <hyperlink ref="A219" r:id="rId219" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Surt" xr:uid="{DC42DBD2-771E-4C03-BBCA-DFBFC90F1195}"/>
-    <hyperlink ref="A220" r:id="rId220" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Cybele" xr:uid="{C93ED28C-9161-46A1-A152-23804BE46DAC}"/>
-    <hyperlink ref="A221" r:id="rId221" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Alice" xr:uid="{C62131A4-F2B5-4585-BCFD-C2BFA7956A11}"/>
-    <hyperlink ref="A222" r:id="rId222" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Odin" xr:uid="{215B6970-8C5D-4F54-9B92-BE13E2CF892C}"/>
-    <hyperlink ref="A223" r:id="rId223" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Ardha" xr:uid="{9EEE1589-259E-4FE6-AFF3-CEA1EEF7F238}"/>
-    <hyperlink ref="A224" r:id="rId224" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Hastur" xr:uid="{CA70DCD8-43C2-445A-90D9-B81D0DA2C76B}"/>
-    <hyperlink ref="A225" r:id="rId225" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Siegfried" xr:uid="{541B83C8-2AB9-4B2D-9A4C-9D5B9BCF2B75}"/>
-    <hyperlink ref="A226" r:id="rId226" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Mother Harlot" xr:uid="{AB4BFA58-5140-40CD-9F8D-97D7A331B6E4}"/>
-    <hyperlink ref="A227" r:id="rId227" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Ishtar" xr:uid="{069E6A4E-6ACE-4B78-A252-7BF6DD4D0239}"/>
-    <hyperlink ref="A228" r:id="rId228" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Futsunushi" xr:uid="{D41D2D57-CE76-45C2-AF11-B03A6BB7F048}"/>
-    <hyperlink ref="A229" r:id="rId229" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Fafnir" xr:uid="{1F3595AB-F6B5-455C-B90C-E920DB184173}"/>
-    <hyperlink ref="A230" r:id="rId230" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Beelzebub" xr:uid="{2041FA21-B19D-426F-800E-0EA66F3213D8}"/>
-    <hyperlink ref="A231" r:id="rId231" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Yoshitsune" xr:uid="{A6289415-BC67-4FCD-83E9-84CA98B4FE32}"/>
-    <hyperlink ref="A232" r:id="rId232" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Michael" xr:uid="{F5B23646-3552-4F37-A096-30072F59D16C}"/>
-    <hyperlink ref="A233" r:id="rId233" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Chi You" xr:uid="{E78B73A1-0195-4201-A7D7-7DF2FAB2C3B4}"/>
-    <hyperlink ref="A234" r:id="rId234" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Metatron" xr:uid="{42EADE47-0ADA-43C0-8511-62164378D3D6}"/>
-    <hyperlink ref="A235" r:id="rId235" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Ongyo-Ki" xr:uid="{24CD21F4-1FA9-4680-AF63-FF5070005BAF}"/>
-    <hyperlink ref="A236" r:id="rId236" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Izanagi-no-Okami Picaro" xr:uid="{95EF77FE-15CD-42A0-BFB9-04C4C22F0A32}"/>
-    <hyperlink ref="A237" r:id="rId237" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Mada" xr:uid="{93002FDF-A15E-4009-ACBE-55A62BF20140}"/>
-    <hyperlink ref="A238" r:id="rId238" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Messiah Picaro" xr:uid="{AE7200DB-B077-4E19-B786-C1A5A6F733B0}"/>
-    <hyperlink ref="A239" r:id="rId239" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Satan" xr:uid="{51D9703B-AABD-4DC0-BE02-39C5B98E5D0E}"/>
-    <hyperlink ref="A240" r:id="rId240" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Lucifer" xr:uid="{BB8CB7CE-079F-4612-9C13-D8B29B6696EE}"/>
-    <hyperlink ref="A241" r:id="rId241" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Maria" xr:uid="{A98309C4-7C22-430A-8283-1CF5A0868FEE}"/>
-    <hyperlink ref="A242" r:id="rId242" display="https://aqiu384.github.io/megaten-fusion-tool/p5r/personas/Satanael" xr:uid="{E27AE612-E716-40BA-B388-1A819D49B066}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId243"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>